--- a/data_processed/20250731/BTCUSDQMOMENT_20250731.xlsx
+++ b/data_processed/20250731/BTCUSDQMOMENT_20250731.xlsx
@@ -1152,10 +1152,18 @@
       <c r="H19" t="n">
         <v>7.056324588959789</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>-0.3016053949076186</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.1541531019975352</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.3740711691849458</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.136546488859221</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">

--- a/data_processed/20250731/BTCUSDQMOMENT_20250731.xlsx
+++ b/data_processed/20250731/BTCUSDQMOMENT_20250731.xlsx
@@ -524,10 +524,18 @@
       <c r="H2" t="n">
         <v>11.59002403884777</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>-0.4695295520068083</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.2348751993419303</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.04957718332383978</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.767138876111711</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1194,10 +1202,18 @@
       <c r="H20" t="n">
         <v>15.065724512999</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>-0.6410027637727349</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.3214833734407471</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.02644294527821311</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.282637360416062</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_processed/20250731/BTCUSDQMOMENT_20250731.xlsx
+++ b/data_processed/20250731/BTCUSDQMOMENT_20250731.xlsx
@@ -552,19 +552,19 @@
         <v>0.1561643835616438</v>
       </c>
       <c r="D3" t="n">
-        <v>118205.6046906161</v>
+        <v>118145.4429732955</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.03355973754788887</v>
+        <v>-0.03610817978583215</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1820238386913998</v>
+        <v>0.1919615532859447</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.8203202944672298</v>
+        <v>-1.211843204895535</v>
       </c>
       <c r="H3" t="n">
-        <v>8.451140672459136</v>
+        <v>11.82180579330556</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -586,19 +586,19 @@
         <v>0.252054794520548</v>
       </c>
       <c r="D4" t="n">
-        <v>118896.9441628615</v>
+        <v>118884.566777737</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.04077880234342077</v>
+        <v>-0.04134920333870538</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2312851203883068</v>
+        <v>0.2341443669460976</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.455883134893311</v>
+        <v>-1.554505504497392</v>
       </c>
       <c r="H4" t="n">
-        <v>12.25629416951728</v>
+        <v>13.29899062754492</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -620,19 +620,19 @@
         <v>0.3287671232876712</v>
       </c>
       <c r="D5" t="n">
-        <v>119637.9113885609</v>
+        <v>120012.6945115529</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.04681555666644376</v>
+        <v>-0.03198243896603334</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2751534846841419</v>
+        <v>0.2111750862737707</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.231805997967229</v>
+        <v>-0.5194278457725386</v>
       </c>
       <c r="H5" t="n">
-        <v>19.92429185128083</v>
+        <v>6.391204359380751</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -654,19 +654,19 @@
         <v>0.4054794520547945</v>
       </c>
       <c r="D6" t="n">
-        <v>120364.2832410351</v>
+        <v>120339.5382767707</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.04613756625916672</v>
+        <v>-0.04724186125118832</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2556942681404908</v>
+        <v>0.2612644695633924</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.10166384887637</v>
+        <v>-1.270849681707819</v>
       </c>
       <c r="H6" t="n">
-        <v>9.255940070752951</v>
+        <v>10.89516532113534</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -688,19 +688,19 @@
         <v>0.5013698630136987</v>
       </c>
       <c r="D7" t="n">
-        <v>121812.2307763757</v>
+        <v>121825.6279993976</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.04523414334787278</v>
+        <v>-0.04355950020084948</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2544820178950947</v>
+        <v>0.2470381920871975</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.6583361492112623</v>
+        <v>-0.5372328021474828</v>
       </c>
       <c r="H7" t="n">
-        <v>5.058590224401684</v>
+        <v>4.607595684585159</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -722,19 +722,19 @@
         <v>0.8273972602739726</v>
       </c>
       <c r="D8" t="n">
-        <v>122013.1451724865</v>
+        <v>122013.8068534817</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.05881288233431391</v>
+        <v>-0.05885547107895549</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2243949796665224</v>
+        <v>0.2247380250754349</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.9553481269707954</v>
+        <v>-0.968356254154783</v>
       </c>
       <c r="H8" t="n">
-        <v>7.081008814490911</v>
+        <v>7.193524516484642</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -756,19 +756,19 @@
         <v>0.9041095890410958</v>
       </c>
       <c r="D9" t="n">
-        <v>123593.5184166528</v>
+        <v>123578.8200288022</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.08748406674307786</v>
+        <v>-0.08842387603249097</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3487795474633006</v>
+        <v>0.3543224698284816</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.853947396754663</v>
+        <v>-1.943705335092959</v>
       </c>
       <c r="H9" t="n">
-        <v>11.65983863446531</v>
+        <v>12.41810975826059</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -790,19 +790,19 @@
         <v>1.153424657534247</v>
       </c>
       <c r="D10" t="n">
-        <v>124983.4317585999</v>
+        <v>124980.4375542639</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1247382514959271</v>
+        <v>-0.1245256475804394</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4452612025864888</v>
+        <v>0.4433245553660382</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.956065251854632</v>
+        <v>-1.931558653852689</v>
       </c>
       <c r="H10" t="n">
-        <v>10.0536912855651</v>
+        <v>9.848049547071152</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -824,19 +824,19 @@
         <v>1.4</v>
       </c>
       <c r="D11" t="n">
-        <v>127075.8816047794</v>
+        <v>127045.4898404461</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1862670057219946</v>
+        <v>-0.2012459396652004</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6672390429642767</v>
+        <v>0.7802362637687535</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.115927307272579</v>
+        <v>-2.622655670293256</v>
       </c>
       <c r="H11" t="n">
-        <v>8.685586015267782</v>
+        <v>12.79669364474417</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1062,19 +1062,19 @@
         <v>0.02191780821917808</v>
       </c>
       <c r="D17" t="n">
-        <v>117369.2449418215</v>
+        <v>117475.4294382372</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.06262133605759959</v>
+        <v>-0.04786276384093117</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3192449226078112</v>
+        <v>0.1235721125547685</v>
       </c>
       <c r="G17" t="n">
-        <v>-13.83990651632804</v>
+        <v>-1.27235776433512</v>
       </c>
       <c r="H17" t="n">
-        <v>325.3242883016408</v>
+        <v>13.1051602762496</v>
       </c>
       <c r="I17" t="n">
         <v>-0.5533630787517</v>
@@ -1104,19 +1104,19 @@
         <v>0.0410958904109589</v>
       </c>
       <c r="D18" t="n">
-        <v>117488.1306284843</v>
+        <v>117483.2433203897</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.04084956424506226</v>
+        <v>-0.04121138019182476</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1309590247014537</v>
+        <v>0.132879978150446</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.7595726199743686</v>
+        <v>-0.875721473036936</v>
       </c>
       <c r="H18" t="n">
-        <v>9.24112295519771</v>
+        <v>10.1014731699809</v>
       </c>
       <c r="I18" t="n">
         <v>-0.2306104443160754</v>
@@ -1146,19 +1146,19 @@
         <v>0.06027397260273973</v>
       </c>
       <c r="D19" t="n">
-        <v>117492.9327249737</v>
+        <v>117501.1614142006</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.04105011588949669</v>
+        <v>-0.04052167028609403</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1443760310645589</v>
+        <v>0.1419128143011636</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.6915026937021425</v>
+        <v>-0.5826305039107675</v>
       </c>
       <c r="H19" t="n">
-        <v>7.056324588959789</v>
+        <v>6.426602499682184</v>
       </c>
       <c r="I19" t="n">
         <v>-0.3016053949076186</v>
@@ -1188,19 +1188,19 @@
         <v>0.09863013698630137</v>
       </c>
       <c r="D20" t="n">
-        <v>118207.1416471007</v>
+        <v>118203.7846888634</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.02680487702640431</v>
+        <v>-0.0266863524811118</v>
       </c>
       <c r="F20" t="n">
-        <v>0.183312598593563</v>
+        <v>0.1808508380883164</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.660696885539116</v>
+        <v>-1.493562302033354</v>
       </c>
       <c r="H20" t="n">
-        <v>15.065724512999</v>
+        <v>13.06899994247547</v>
       </c>
       <c r="I20" t="n">
         <v>-0.6410027637727349</v>

--- a/data_processed/20250731/BTCUSDQMOMENT_20250731.xlsx
+++ b/data_processed/20250731/BTCUSDQMOMENT_20250731.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>11.82180579330556</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>-0.66050262823927</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2505814835901367</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.02080789189105024</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.636447856672124</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">

--- a/data_processed/20250731/BTCUSDQMOMENT_20250731.xlsx
+++ b/data_processed/20250731/BTCUSDQMOMENT_20250731.xlsx
@@ -608,10 +608,18 @@
       <c r="H4" t="n">
         <v>13.29899062754492</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>-0.6759486140615097</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4584227415980057</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.4132038225786378</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.818383311834202</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
